--- a/_Шаблон.xlsx
+++ b/_Шаблон.xlsx
@@ -10,14 +10,14 @@
     <sheet name="AT_log_2024-09-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AJ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AK$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,10 @@
   <si>
     <t>Debug
 Mode</t>
+  </si>
+  <si>
+    <t>Engine
+RPM</t>
   </si>
 </sst>
 </file>
@@ -318,7 +322,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE0FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68DBF2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,6 +829,12 @@
     </xf>
     <xf numFmtId="3" fontId="18" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -869,6 +885,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF68DBF2"/>
+      <color rgb="FF87E3F5"/>
+      <color rgb="FFA8FE9C"/>
+      <color rgb="FF00CC00"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF8DFB15"/>
+      <color rgb="FFCCFF66"/>
       <color rgb="FFFBE0FC"/>
       <color rgb="FFFAD2FB"/>
       <color rgb="FFB4E2C4"/>
@@ -1169,154 +1192,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.8984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.69921875" style="9" customWidth="1"/>
-    <col min="12" max="15" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.09765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.69921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="7.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.69921875" style="2"/>
+    <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.69921875" style="9" customWidth="1"/>
+    <col min="13" max="16" width="3" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1"/>
+  <autoFilter ref="A1:AK1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_Шаблон.xlsx
+++ b/_Шаблон.xlsx
@@ -830,10 +830,10 @@
     <xf numFmtId="3" fontId="18" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/_Шаблон.xlsx
+++ b/_Шаблон.xlsx
@@ -10,14 +10,14 @@
     <sheet name="AT_log_2024-09-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AK$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +154,10 @@
   <si>
     <t>Engine
 RPM</t>
+  </si>
+  <si>
+    <t>Drum
+RPMDelta</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1205,34 +1209,35 @@
     <col min="2" max="2" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.69921875" style="9" customWidth="1"/>
-    <col min="13" max="16" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.09765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.69921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.69921875" style="2"/>
+    <col min="5" max="5" width="10.09765625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6.69921875" style="9" customWidth="1"/>
+    <col min="14" max="17" width="3" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="7.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1246,104 +1251,107 @@
         <v>24</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK1"/>
+  <autoFilter ref="A1:AL1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_Шаблон.xlsx
+++ b/_Шаблон.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="10608"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22050" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="AT_log_2024-09-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,27 @@
   <si>
     <t>Drum
 RPMDelta</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>Raw TPS</t>
+  </si>
+  <si>
+    <t>Raw OIL</t>
+  </si>
+  <si>
+    <t>Adaptation Flag TPS</t>
+  </si>
+  <si>
+    <t>Adaptation Flag Temp</t>
+  </si>
+  <si>
+    <t>Gear Manual Mode</t>
   </si>
 </sst>
 </file>
@@ -326,7 +347,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +590,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF68DBF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,6 +872,30 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1196,48 +1253,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.69921875" style="9" customWidth="1"/>
-    <col min="14" max="17" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.09765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.69921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="7.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.69921875" style="2"/>
+    <col min="11" max="11" width="6" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="6.75" style="9" customWidth="1"/>
+    <col min="16" max="19" width="3" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="7.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.625" style="34" customWidth="1"/>
+    <col min="41" max="41" width="8.75" style="36"/>
+    <col min="42" max="42" width="11.375" style="37" customWidth="1"/>
+    <col min="43" max="43" width="11.875" style="37" customWidth="1"/>
+    <col min="44" max="44" width="8.75" style="38"/>
+    <col min="45" max="45" width="8.75" style="32"/>
+    <col min="46" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1268,90 +1333,112 @@
       <c r="J1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>34</v>
       </c>
+      <c r="AN1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AM1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_Шаблон.xlsx
+++ b/_Шаблон.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22050" windowHeight="10605"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="10608"/>
   </bookViews>
   <sheets>
     <sheet name="AT_log_2024-09-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AM$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AT_log_2024-09-01'!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -179,14 +179,18 @@
   </si>
   <si>
     <t>Gear Manual Mode</t>
+  </si>
+  <si>
+    <t>MeterCounter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -781,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,6 +900,18 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1253,56 +1269,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="20" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6.75" style="9" customWidth="1"/>
-    <col min="16" max="19" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="7.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.625" style="34" customWidth="1"/>
-    <col min="41" max="41" width="8.75" style="36"/>
-    <col min="42" max="42" width="11.375" style="37" customWidth="1"/>
-    <col min="43" max="43" width="11.875" style="37" customWidth="1"/>
-    <col min="44" max="44" width="8.75" style="38"/>
-    <col min="45" max="45" width="8.75" style="32"/>
-    <col min="46" max="16384" width="8.75" style="2"/>
+    <col min="8" max="8" width="13" style="40" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10" style="42" customWidth="1"/>
+    <col min="14" max="16" width="6.69921875" style="9" customWidth="1"/>
+    <col min="17" max="20" width="3" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="7.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.59765625" style="34" customWidth="1"/>
+    <col min="42" max="42" width="8.69921875" style="36"/>
+    <col min="43" max="43" width="11.3984375" style="37" customWidth="1"/>
+    <col min="44" max="44" width="11.8984375" style="37" customWidth="1"/>
+    <col min="45" max="45" width="8.69921875" style="38"/>
+    <col min="46" max="46" width="8.69921875" style="32"/>
+    <col min="47" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1324,121 +1341,124 @@
       <c r="G1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="35" t="s">
+      <c r="AS1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AN1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
